--- a/models/type3and5and10/Best_VotingEnsemble/ModelMetrics.xlsx
+++ b/models/type3and5and10/Best_VotingEnsemble/ModelMetrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\type3and5and10\Best_VotingEnsemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC1C683-C58A-4CD2-BB72-A8C52AEB3D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70AEFE4-D2EE-4F2B-9382-EB5D020DA78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="5880" windowWidth="14325" windowHeight="8010" xr2:uid="{DA73E4ED-A3F7-A94F-B9FD-B2DD33FE7DD1}"/>
+    <workbookView xWindow="14475" yWindow="3600" windowWidth="14325" windowHeight="8010" xr2:uid="{DA73E4ED-A3F7-A94F-B9FD-B2DD33FE7DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="VotingEnsemble" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>VotingEnsemble</t>
   </si>
   <si>
-    <t>dd2967b8-eedd-42ea-bb8c-1643b5697d58_44</t>
+    <t>e91c8e84-e7d7-471d-83bd-f6628178a777_36</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A59FE49-6FCB-4646-98D8-AE4C1D7047BC}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.85714000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.73333000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.81223999999999996</v>
+        <v>0.86121999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.73333000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.72324999999999995</v>
+        <v>0.71436999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.80539000000000005</v>
+        <v>0.83762000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.82557999999999998</v>
+        <v>0.81747999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.77500000000000002</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.71206999999999998</v>
+        <v>0.69771000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.85714000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0.79586000000000001</v>
+        <v>0.82838999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0.5383</v>
+        <v>0.51561000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.53025999999999995</v>
+        <v>0.45954</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.74570999999999998</v>
+        <v>0.70643</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.85714000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.86980000000000002</v>
+        <v>0.83816000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>0.77500000000000002</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
+        <v>0.85714000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>0.85714000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.80130000000000001</v>
+        <v>0.89319000000000004</v>
       </c>
     </row>
   </sheetData>
